--- a/web/excel/checks/request_check.xlsx
+++ b/web/excel/checks/request_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA00E042-8434-482A-9F03-3F743FD82635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD1890-5EEA-42C2-960D-2A16F134102C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEQUE" sheetId="2" r:id="rId1"/>
@@ -241,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -355,21 +355,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -389,7 +374,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -507,6 +492,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,104 +621,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -928,11 +919,11 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="52.42578125" style="1" customWidth="1"/>
@@ -977,13 +968,13 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="8"/>
       <c r="H4" s="36"/>
     </row>
@@ -999,27 +990,27 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
@@ -1034,10 +1025,10 @@
     <row r="9" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="7"/>
       <c r="H9" s="34"/>
     </row>
@@ -1068,12 +1059,12 @@
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
@@ -1090,12 +1081,12 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
@@ -1108,16 +1099,16 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45"/>
@@ -1134,12 +1125,12 @@
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="81"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
@@ -1168,27 +1159,27 @@
         <v>5</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="89"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="62"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="62"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1202,25 +1193,25 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="91"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="94"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1240,12 +1231,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="25"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="100"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="53"/>
@@ -1258,16 +1249,16 @@
       <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="100"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="73"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54"/>
@@ -1280,16 +1271,16 @@
       <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="100"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
@@ -1312,16 +1303,16 @@
       <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="105"/>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
@@ -1334,14 +1325,14 @@
       <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="103"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="76"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
@@ -1355,6 +1346,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C21:H22"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:H34"/>
@@ -1368,17 +1370,6 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.31496062992126" right="0.27559055118110198" top="0.24" bottom="0.35" header="0.118110236220472" footer="0.33"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>

--- a/web/excel/checks/request_check.xlsx
+++ b/web/excel/checks/request_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD1890-5EEA-42C2-960D-2A16F134102C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5352048A-60E5-4583-8DFB-564001B4D604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEQUE" sheetId="2" r:id="rId1"/>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,21 +203,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="16"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF002060"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -492,6 +485,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -507,33 +524,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -543,6 +533,60 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -552,83 +596,32 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -919,8 +912,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:B36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -968,13 +961,13 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="8"/>
       <c r="H4" s="36"/>
     </row>
@@ -990,27 +983,27 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="101"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
@@ -1025,10 +1018,10 @@
     <row r="9" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="7"/>
       <c r="H9" s="34"/>
     </row>
@@ -1059,12 +1052,12 @@
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
@@ -1081,12 +1074,12 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
@@ -1099,16 +1092,16 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45"/>
@@ -1125,12 +1118,12 @@
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="85"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
@@ -1159,27 +1152,27 @@
         <v>5</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="62"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="70"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="62"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="70"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1193,25 +1186,25 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="64"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="84"/>
       <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="87"/>
       <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1231,12 +1224,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="25"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="73"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="90"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="53"/>
@@ -1249,16 +1242,16 @@
       <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="73"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54"/>
@@ -1270,17 +1263,17 @@
       <c r="G30" s="24"/>
       <c r="H30" s="52"/>
     </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60" t="s">
+    <row r="31" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="73"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
@@ -1302,17 +1295,17 @@
       <c r="G33" s="24"/>
       <c r="H33" s="52"/>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="105"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="93"/>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
@@ -1325,14 +1318,14 @@
       <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="76"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="75"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
@@ -1346,17 +1339,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C21:H22"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:H34"/>
@@ -1370,6 +1352,17 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.31496062992126" right="0.27559055118110198" top="0.24" bottom="0.35" header="0.118110236220472" footer="0.33"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>

--- a/web/excel/checks/request_check.xlsx
+++ b/web/excel/checks/request_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5352048A-60E5-4583-8DFB-564001B4D604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD6B74B-D991-431C-818F-B921E9973DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,6 +485,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,120 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -912,8 +912,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="83" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -961,13 +961,13 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="8"/>
       <c r="H4" s="36"/>
     </row>
@@ -983,27 +983,27 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
@@ -1018,10 +1018,10 @@
     <row r="9" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="7"/>
       <c r="H9" s="34"/>
     </row>
@@ -1052,12 +1052,12 @@
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
@@ -1074,12 +1074,12 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
@@ -1092,16 +1092,16 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="85"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45"/>
@@ -1118,12 +1118,12 @@
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
@@ -1152,27 +1152,27 @@
         <v>5</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="70"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="65"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="70"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="65"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1186,25 +1186,25 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="72"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="84"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1224,12 +1224,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="25"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="76"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="53"/>
@@ -1242,16 +1242,16 @@
       <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54"/>
@@ -1264,16 +1264,16 @@
       <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="90"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
@@ -1296,16 +1296,16 @@
       <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="93"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
@@ -1317,15 +1317,15 @@
       <c r="G35" s="7"/>
       <c r="H35" s="34"/>
     </row>
-    <row r="36" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="68"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
+    <row r="36" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="60"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="79"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
@@ -1339,6 +1339,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C21:H22"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:H34"/>
@@ -1352,17 +1363,6 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.31496062992126" right="0.27559055118110198" top="0.24" bottom="0.35" header="0.118110236220472" footer="0.33"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>

--- a/web/excel/checks/request_check.xlsx
+++ b/web/excel/checks/request_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD6B74B-D991-431C-818F-B921E9973DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3EC014-20C9-4643-AB4B-BD3035C7A6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEQUE" sheetId="2" r:id="rId1"/>
@@ -367,7 +367,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -486,6 +486,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,10 +546,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -912,8 +918,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="83" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -961,13 +967,13 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="8"/>
       <c r="H4" s="36"/>
     </row>
@@ -983,27 +989,27 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
@@ -1018,10 +1024,10 @@
     <row r="9" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="7"/>
       <c r="H9" s="34"/>
     </row>
@@ -1052,12 +1058,12 @@
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
@@ -1074,12 +1080,12 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
@@ -1092,16 +1098,16 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45"/>
@@ -1118,12 +1124,12 @@
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
@@ -1152,27 +1158,27 @@
         <v>5</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="65"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="65"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1186,25 +1192,25 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="67"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1224,12 +1230,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="25"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="78"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="53"/>
@@ -1242,16 +1248,16 @@
       <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54"/>
@@ -1264,16 +1270,16 @@
       <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
@@ -1296,16 +1302,16 @@
       <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="64"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
@@ -1317,15 +1323,15 @@
       <c r="G35" s="7"/>
       <c r="H35" s="34"/>
     </row>
-    <row r="36" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="60"/>
       <c r="B36" s="61"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>

--- a/web/excel/checks/request_check.xlsx
+++ b/web/excel/checks/request_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3EC014-20C9-4643-AB4B-BD3035C7A6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76C8B10-54A9-4574-8857-45DDE8AC93D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>REVISADO POR :</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>AUTORIZADO POR:</t>
+  </si>
+  <si>
+    <t>VoBo Directora Ejecutiva</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -348,6 +351,21 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -367,7 +385,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -485,18 +503,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -545,89 +641,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -919,7 +934,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -967,13 +982,13 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="8"/>
       <c r="H4" s="36"/>
     </row>
@@ -989,27 +1004,27 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="104" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="106"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
@@ -1024,10 +1039,10 @@
     <row r="9" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="7"/>
       <c r="H9" s="34"/>
     </row>
@@ -1058,12 +1073,12 @@
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
@@ -1080,12 +1095,12 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
@@ -1098,16 +1113,16 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45"/>
@@ -1124,12 +1139,12 @@
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="90"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
@@ -1158,27 +1173,27 @@
         <v>5</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="67"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="93"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="67"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="93"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1192,25 +1207,25 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="69"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
       <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,12 +1245,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="25"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="78"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="53"/>
@@ -1248,16 +1263,16 @@
       <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54"/>
@@ -1270,16 +1285,16 @@
       <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
@@ -1302,16 +1317,16 @@
       <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="66"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
@@ -1324,14 +1339,16 @@
       <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="81"/>
+      <c r="A36" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="89"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
@@ -1345,17 +1362,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C21:H22"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:H34"/>
@@ -1369,6 +1375,17 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.31496062992126" right="0.27559055118110198" top="0.24" bottom="0.35" header="0.118110236220472" footer="0.33"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>

--- a/web/excel/checks/request_check.xlsx
+++ b/web/excel/checks/request_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76C8B10-54A9-4574-8857-45DDE8AC93D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B1245-78B8-4454-9193-A27DFBECFD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,6 +503,114 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,114 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -933,8 +933,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -982,13 +982,13 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="8"/>
       <c r="H4" s="36"/>
     </row>
@@ -1004,27 +1004,27 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
@@ -1039,10 +1039,10 @@
     <row r="9" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="7"/>
       <c r="H9" s="34"/>
     </row>
@@ -1073,12 +1073,12 @@
         <v>9</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
@@ -1095,12 +1095,12 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
@@ -1113,16 +1113,16 @@
       <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45"/>
@@ -1139,12 +1139,12 @@
         <v>6</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="81"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
@@ -1173,27 +1173,27 @@
         <v>5</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="93"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1207,25 +1207,25 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="95"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="98"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94"/>
-      <c r="B25" s="95"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="101"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,12 +1245,12 @@
         <v>2</v>
       </c>
       <c r="B27" s="25"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="104"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="78"/>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="53"/>
@@ -1263,16 +1263,16 @@
       <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="104"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="78"/>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54"/>
@@ -1285,16 +1285,16 @@
       <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
@@ -1317,16 +1317,16 @@
       <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
@@ -1339,16 +1339,16 @@
       <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
@@ -1362,6 +1362,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C21:H22"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:H34"/>
@@ -1375,17 +1386,6 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.31496062992126" right="0.27559055118110198" top="0.24" bottom="0.35" header="0.118110236220472" footer="0.33"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
